--- a/1_excel/sample2.xlsx
+++ b/1_excel/sample2.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>컴퓨터</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -443,10 +443,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="C2" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -454,10 +454,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +465,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -476,10 +476,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
@@ -487,10 +487,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>63</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
@@ -498,10 +498,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="C7" t="n">
-        <v>41</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -509,7 +509,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C8" t="n">
         <v>77</v>
@@ -520,10 +520,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -531,10 +531,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -542,10 +542,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
